--- a/Web/coyni/resources/testScript-Api.xlsx
+++ b/Web/coyni/resources/testScript-Api.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD80C4D-3AFA-4B28-85B1-4255BC81595A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67652C1C-722F-43D1-8A33-6C0435A99668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="10455" windowHeight="9180" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="300">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -782,34 +782,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>coyni.apibusiness.tests.BusinessProfileTest,
-testEditEmailAddressWithInvalidAuthy,
--pemail,
--pemailHeading1,
--pemailHeading2,
--pchar,
--ppin,
--perrMessage,
--pvalidPin,
--penterEmail,
--pemailHeading,
--pemailAddressHeading,
--pnewEmailPopUp,
--pnewEmail</t>
-  </si>
-  <si>
     <t>testEditEmailAddressInvalidData</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.BusinessProfileTest,
-testEditEmailAddressInvalidData,
--pemail,
--pcode,
--pemailAddressHeading,
--pnewEmail,
--pcolour,
--pelementName,
--perrMessage</t>
   </si>
   <si>
     <t>testGetSmsCodeVerificationEmailAddress</t>
@@ -968,19 +941,7 @@
     <t>testData_Api.xlsx,PaymentMethods</t>
   </si>
   <si>
-    <t>testTokenWalletBuyTokensBuyTokensBankAccount</t>
-  </si>
-  <si>
     <t>testData_Api.xlsx,BuyTokens</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.TokenWalletTest,
-testTokenWalletBuyTokensBankAccount,
--pheading,
--psubHeading,
--pamount,
--pcode,
--ppreviewHeading</t>
   </si>
   <si>
     <t>testBusinenssSettingsAddSignetAccount</t>
@@ -1819,6 +1780,36 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessProfileTest,
+testEditEmailAddressWithInvalidAuthy,
+-pemail1,
+-pemailHeading1,
+-pemailHeading2,
+-pchar,
+-ppin,
+-perrMessage,
+-pvalidPin,
+-penterEmail,
+-pemailHeading,
+-pemailAddressHeading,
+-pnewEmailPopUp,
+-pnewEmail</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessProfileTest,
+testEditEmailAddressInvalidData,
+-pemail1,
+-pcode,
+-pemailAddressHeading,
+-pnewEmail,
+-pcolour,
+-pelementName,
+-perrMessage</t>
   </si>
 </sst>
 </file>
@@ -2296,10 +2287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}">
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,7 +2340,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>10</v>
@@ -2378,7 +2369,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
@@ -2407,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
@@ -2436,7 +2427,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
@@ -2465,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
@@ -2494,7 +2485,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
@@ -2523,7 +2514,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
@@ -2552,7 +2543,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -2581,7 +2572,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
@@ -2610,7 +2601,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -2639,7 +2630,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
@@ -2668,7 +2659,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
@@ -2697,7 +2688,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
@@ -2726,7 +2717,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -2755,7 +2746,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
@@ -2784,7 +2775,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -2813,7 +2804,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -2842,7 +2833,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2871,7 +2862,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
@@ -2900,7 +2891,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
@@ -2926,7 +2917,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>55</v>
@@ -2938,7 +2929,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>56</v>
@@ -2952,7 +2943,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>55</v>
@@ -2978,7 +2969,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>55</v>
@@ -3004,7 +2995,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>55</v>
@@ -3030,13 +3021,13 @@
         <v>63</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -3056,7 +3047,7 @@
         <v>66</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>64</v>
@@ -3082,7 +3073,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>64</v>
@@ -3108,7 +3099,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>64</v>
@@ -3134,7 +3125,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>64</v>
@@ -3160,7 +3151,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>72</v>
@@ -3186,7 +3177,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>72</v>
@@ -3212,7 +3203,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>72</v>
@@ -3224,7 +3215,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>73</v>
@@ -3238,7 +3229,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>72</v>
@@ -3264,7 +3255,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>72</v>
@@ -3290,7 +3281,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>72</v>
@@ -3316,7 +3307,7 @@
         <v>79</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>80</v>
@@ -3345,7 +3336,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>80</v>
@@ -3374,7 +3365,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>80</v>
@@ -3403,7 +3394,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>105</v>
@@ -3432,7 +3423,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>105</v>
@@ -3461,7 +3452,7 @@
         <v>110</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>105</v>
@@ -3470,7 +3461,7 @@
         <v>17</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>58</v>
@@ -3482,15 +3473,15 @@
         <v>14</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>112</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>105</v>
@@ -3499,7 +3490,7 @@
         <v>17</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>62</v>
@@ -3511,15 +3502,15 @@
         <v>14</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>105</v>
@@ -3540,15 +3531,15 @@
         <v>14</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>105</v>
@@ -3569,47 +3560,47 @@
         <v>14</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="H46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>11</v>
@@ -3621,24 +3612,24 @@
         <v>12</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="280.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>17</v>
@@ -3650,24 +3641,24 @@
         <v>68</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>17</v>
@@ -3679,24 +3670,24 @@
         <v>12</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>17</v>
@@ -3708,24 +3699,24 @@
         <v>12</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>17</v>
@@ -3737,24 +3728,24 @@
         <v>12</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>17</v>
@@ -3766,24 +3757,24 @@
         <v>68</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>17</v>
@@ -3795,24 +3786,24 @@
         <v>12</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>17</v>
@@ -3824,24 +3815,24 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>17</v>
@@ -3853,24 +3844,24 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>11</v>
@@ -3882,401 +3873,401 @@
         <v>12</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H57" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="23" t="s">
+    </row>
+    <row r="58" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+    <row r="59" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="10" t="s">
+      <c r="B59" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="D59" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H59" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C60" s="11" t="s">
+    </row>
+    <row r="61" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="6" t="s">
+      <c r="B61" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+    <row r="62" spans="1:9" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="6" t="s">
+      <c r="B62" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H62" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="B63" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="6" t="s">
+    </row>
+    <row r="64" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="B64" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+    </row>
+    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="6" t="s">
+      <c r="B65" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="6" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="6" t="s">
+      <c r="B67" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="6" t="s">
+      <c r="B68" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="D68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="16" t="s">
+      <c r="I68" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>168</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>11</v>
@@ -4288,24 +4279,24 @@
         <v>12</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>11</v>
@@ -4317,25 +4308,25 @@
         <v>12</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I71" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>169</v>
-      </c>
       <c r="D72" s="11" t="s">
         <v>11</v>
       </c>
@@ -4346,53 +4337,53 @@
         <v>12</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>11</v>
@@ -4404,123 +4395,123 @@
         <v>12</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H74" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>121</v>
+        <v>294</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>187</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C76" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="4" t="s">
+      <c r="D76" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="15" t="s">
         <v>189</v>
       </c>
+      <c r="G76" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="H76" s="6" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D77" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E77" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="E78" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="G78" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>14</v>
@@ -4534,475 +4525,475 @@
         <v>198</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="14" t="s">
+      <c r="B84" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+    <row r="85" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="14" t="s">
+      <c r="B85" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="14" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="14" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="14" t="s">
+      <c r="B87" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+    <row r="88" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="14" t="s">
+      <c r="B88" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+    <row r="89" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="6" t="s">
+      <c r="B89" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+    <row r="90" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="14" t="s">
+      <c r="B90" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+    <row r="91" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="14" t="s">
+      <c r="B91" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+    <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="14" t="s">
+      <c r="B92" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
+      <c r="D92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="H92" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I92" s="14" t="s">
+      <c r="I92" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>227</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C93" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="4">
-        <v>1</v>
-      </c>
-      <c r="F93" s="4">
-        <v>1</v>
-      </c>
-      <c r="G93" s="12" t="s">
+      <c r="D93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I93" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" s="6" t="s">
+    </row>
+    <row r="94" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="B94" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C94" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="13" t="s">
+      <c r="D94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>235</v>
-      </c>
       <c r="D95" s="4" t="s">
         <v>11</v>
       </c>
@@ -5013,24 +5004,24 @@
         <v>12</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I95" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="B96" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>11</v>
@@ -5042,24 +5033,24 @@
         <v>12</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>11</v>
@@ -5071,53 +5062,53 @@
         <v>12</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>17</v>
@@ -5126,85 +5117,85 @@
         <v>12</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I99" s="14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C100" s="18" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="D100" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I100" s="14" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H101" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>11</v>
@@ -5216,111 +5207,111 @@
         <v>12</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H102" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I102" s="6" t="s">
-        <v>253</v>
+      <c r="I102" s="14" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="14" t="s">
+      <c r="B104" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104" s="18" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="D104" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D104" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H104" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" s="14" t="s">
+    </row>
+    <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="B105" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>11</v>
@@ -5332,128 +5323,128 @@
         <v>12</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H107" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" s="14" t="s">
+      <c r="B108" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C108" s="18" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="D108" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D108" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H108" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="14" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D110" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H110" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" s="14" t="s">
+      <c r="H110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="6" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5462,39 +5453,39 @@
         <v>272</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>11</v>
@@ -5506,137 +5497,137 @@
         <v>12</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="H113" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I113" s="6" t="s">
+      <c r="I113" s="20" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="12" t="s">
         <v>280</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="11" t="s">
+    </row>
+    <row r="115" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="H114" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="20" t="s">
+      <c r="B115" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" s="20" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+    <row r="116" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" s="20" t="s">
+      <c r="B116" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="D116" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C116" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>282</v>
-      </c>
       <c r="H116" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I116" s="20" t="s">
+      <c r="I116" s="14" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="11" t="s">
         <v>288</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>289</v>
@@ -5656,7 +5647,7 @@
       <c r="H117" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I117" s="14" t="s">
+      <c r="I117" s="20" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5665,61 +5656,32 @@
         <v>292</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C118" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C119" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I119" s="20" t="s">
-        <v>297</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I119" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}"/>
+  <autoFilter ref="A1:I118" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/testScript-Api.xlsx
+++ b/Web/coyni/resources/testScript-Api.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67652C1C-722F-43D1-8A33-6C0435A99668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6843536D-C8B0-4FF9-B138-088CBDF1D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="4065" windowWidth="10455" windowHeight="9180" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="10455" windowHeight="9180" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$119</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="302">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -782,7 +782,34 @@
     <t>4</t>
   </si>
   <si>
+    <t>coyni.apibusiness.tests.BusinessProfileTest,
+testEditEmailAddressWithInvalidAuthy,
+-pemail,
+-pemailHeading1,
+-pemailHeading2,
+-pchar,
+-ppin,
+-perrMessage,
+-pvalidPin,
+-penterEmail,
+-pemailHeading,
+-pemailAddressHeading,
+-pnewEmailPopUp,
+-pnewEmail</t>
+  </si>
+  <si>
     <t>testEditEmailAddressInvalidData</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessProfileTest,
+testEditEmailAddressInvalidData,
+-pemail,
+-pcode,
+-pemailAddressHeading,
+-pnewEmail,
+-pcolour,
+-pelementName,
+-perrMessage</t>
   </si>
   <si>
     <t>testGetSmsCodeVerificationEmailAddress</t>
@@ -941,7 +968,19 @@
     <t>testData_Api.xlsx,PaymentMethods</t>
   </si>
   <si>
+    <t>testTokenWalletBuyTokensBuyTokensBankAccount</t>
+  </si>
+  <si>
     <t>testData_Api.xlsx,BuyTokens</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.TokenWalletTest,
+testTokenWalletBuyTokensBankAccount,
+-pheading,
+-psubHeading,
+-pamount,
+-pcode,
+-ppreviewHeading</t>
   </si>
   <si>
     <t>testBusinenssSettingsAddSignetAccount</t>
@@ -1782,34 +1821,7 @@
     <t>no</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.BusinessProfileTest,
-testEditEmailAddressWithInvalidAuthy,
--pemail1,
--pemailHeading1,
--pemailHeading2,
--pchar,
--ppin,
--perrMessage,
--pvalidPin,
--penterEmail,
--pemailHeading,
--pemailAddressHeading,
--pnewEmailPopUp,
--pnewEmail</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.BusinessProfileTest,
-testEditEmailAddressInvalidData,
--pemail1,
--pcode,
--pemailAddressHeading,
--pnewEmail,
--pcolour,
--pelementName,
--perrMessage</t>
+    <t>TestData_Api.xlsx,BuyTokens</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1905,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1973,6 +1985,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2287,10 +2308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2340,7 +2361,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>10</v>
@@ -2369,7 +2390,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
@@ -2398,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
@@ -2427,7 +2448,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
@@ -2456,7 +2477,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
@@ -2485,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
@@ -2514,7 +2535,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
@@ -2543,7 +2564,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -2572,7 +2593,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
@@ -2601,7 +2622,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -2630,7 +2651,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
@@ -2659,7 +2680,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
@@ -2688,7 +2709,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
@@ -2717,7 +2738,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -2746,7 +2767,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
@@ -2775,7 +2796,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -2804,7 +2825,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -2833,7 +2854,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2862,7 +2883,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
@@ -2891,7 +2912,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
@@ -2917,7 +2938,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>55</v>
@@ -2929,7 +2950,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>56</v>
@@ -2943,7 +2964,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>55</v>
@@ -2969,7 +2990,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>55</v>
@@ -2995,7 +3016,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>55</v>
@@ -3021,13 +3042,13 @@
         <v>63</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
@@ -3047,7 +3068,7 @@
         <v>66</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>64</v>
@@ -3073,7 +3094,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>64</v>
@@ -3099,7 +3120,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>64</v>
@@ -3125,7 +3146,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>64</v>
@@ -3151,7 +3172,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>72</v>
@@ -3177,7 +3198,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>72</v>
@@ -3203,7 +3224,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>72</v>
@@ -3215,7 +3236,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>297</v>
+        <v>62</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>73</v>
@@ -3229,7 +3250,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>72</v>
@@ -3255,7 +3276,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C35" s="25" t="s">
         <v>72</v>
@@ -3281,7 +3302,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>72</v>
@@ -3307,7 +3328,7 @@
         <v>79</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>80</v>
@@ -3336,7 +3357,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>80</v>
@@ -3365,7 +3386,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>80</v>
@@ -3394,7 +3415,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>105</v>
@@ -3423,7 +3444,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C41" s="25" t="s">
         <v>105</v>
@@ -3452,7 +3473,7 @@
         <v>110</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>105</v>
@@ -3461,7 +3482,7 @@
         <v>17</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>58</v>
@@ -3473,15 +3494,15 @@
         <v>14</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>298</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>105</v>
@@ -3502,15 +3523,15 @@
         <v>14</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>299</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>105</v>
@@ -3531,15 +3552,15 @@
         <v>14</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="169.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>105</v>
@@ -3560,18 +3581,18 @@
         <v>14</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>11</v>
@@ -3583,53 +3604,53 @@
         <v>12</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="H47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="280.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>17</v>
@@ -3641,24 +3662,24 @@
         <v>68</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>17</v>
@@ -3670,24 +3691,24 @@
         <v>12</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>17</v>
@@ -3699,24 +3720,24 @@
         <v>12</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>17</v>
@@ -3728,24 +3749,24 @@
         <v>12</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>17</v>
@@ -3757,24 +3778,24 @@
         <v>68</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>17</v>
@@ -3786,24 +3807,24 @@
         <v>12</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>17</v>
@@ -3815,24 +3836,24 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H54" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>17</v>
@@ -3844,24 +3865,24 @@
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H55" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>11</v>
@@ -3873,111 +3894,111 @@
         <v>12</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="28" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="24" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="D58" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="28" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H58" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>148</v>
+      <c r="D59" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="27" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>11</v>
@@ -3989,25 +4010,25 @@
         <v>12</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="D61" s="11" t="s">
         <v>11</v>
       </c>
@@ -4018,140 +4039,140 @@
         <v>12</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H62" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>154</v>
+        <v>298</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="23" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H64" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I64" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>159</v>
+      <c r="I65" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>11</v>
@@ -4163,24 +4184,24 @@
         <v>12</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>11</v>
@@ -4192,24 +4213,24 @@
         <v>12</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I67" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>11</v>
@@ -4221,24 +4242,24 @@
         <v>12</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="16" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>11</v>
@@ -4250,24 +4271,24 @@
         <v>12</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>11</v>
@@ -4279,24 +4300,24 @@
         <v>12</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>11</v>
@@ -4308,24 +4329,24 @@
         <v>12</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>174</v>
+      <c r="A72" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>11</v>
@@ -4337,24 +4358,24 @@
         <v>12</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>11</v>
@@ -4366,25 +4387,25 @@
         <v>12</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H73" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>175</v>
-      </c>
       <c r="D74" s="11" t="s">
         <v>11</v>
       </c>
@@ -4395,123 +4416,123 @@
         <v>12</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H74" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H74" s="23" t="s">
         <v>100</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="11" t="s">
         <v>183</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>185</v>
+        <v>298</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="15" t="s">
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="H76" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="D77" s="11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="H78" s="6" t="s">
         <v>14</v>
@@ -4525,97 +4546,97 @@
         <v>198</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H79" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="14" t="s">
-        <v>204</v>
+      <c r="I81" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>11</v>
@@ -4627,25 +4648,25 @@
         <v>12</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="D83" s="12" t="s">
         <v>11</v>
       </c>
@@ -4656,24 +4677,24 @@
         <v>12</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I83" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>11</v>
@@ -4685,24 +4706,24 @@
         <v>12</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="I84" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>11</v>
@@ -4714,24 +4735,24 @@
         <v>12</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>11</v>
@@ -4743,24 +4764,24 @@
         <v>12</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>11</v>
@@ -4772,82 +4793,82 @@
         <v>12</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="I87" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D88" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E88" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="E89" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>11</v>
@@ -4859,24 +4880,24 @@
         <v>12</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>11</v>
@@ -4888,111 +4909,111 @@
         <v>12</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>223</v>
+      <c r="A92" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="4">
-        <v>1</v>
-      </c>
-      <c r="F92" s="4">
-        <v>1</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>225</v>
+        <v>298</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>194</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>227</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C93" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>190</v>
+      <c r="D93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I93" s="14" t="s">
-        <v>229</v>
+        <v>14</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>230</v>
+      <c r="A94" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>11</v>
@@ -5004,24 +5025,24 @@
         <v>12</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
         <v>236</v>
       </c>
+    </row>
+    <row r="96" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="B96" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>11</v>
@@ -5033,25 +5054,25 @@
         <v>12</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>234</v>
-      </c>
       <c r="D97" s="4" t="s">
         <v>11</v>
       </c>
@@ -5062,53 +5083,53 @@
         <v>12</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>17</v>
@@ -5117,56 +5138,56 @@
         <v>12</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="H100" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D101" s="18" t="s">
         <v>11</v>
@@ -5178,25 +5199,25 @@
         <v>12</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H101" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>246</v>
-      </c>
       <c r="D102" s="18" t="s">
         <v>11</v>
       </c>
@@ -5207,24 +5228,24 @@
         <v>12</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H102" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I102" s="14" t="s">
-        <v>251</v>
+      <c r="I102" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -5236,24 +5257,24 @@
         <v>12</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
-        <v>254</v>
+      <c r="A104" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>11</v>
@@ -5265,24 +5286,24 @@
         <v>12</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="H104" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>257</v>
+      <c r="A105" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>11</v>
@@ -5294,25 +5315,25 @@
         <v>12</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H105" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>255</v>
-      </c>
       <c r="D106" s="18" t="s">
         <v>11</v>
       </c>
@@ -5323,24 +5344,24 @@
         <v>12</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>11</v>
@@ -5352,24 +5373,24 @@
         <v>12</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>263</v>
+      <c r="A108" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>11</v>
@@ -5381,24 +5402,24 @@
         <v>12</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D109" s="18" t="s">
         <v>11</v>
@@ -5410,41 +5431,41 @@
         <v>12</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H109" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" s="6" t="s">
+      <c r="D110" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" s="14" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5453,10 +5474,10 @@
         <v>272</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>11</v>
@@ -5468,53 +5489,53 @@
         <v>12</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C112" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="H112" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>11</v>
@@ -5526,24 +5547,24 @@
         <v>12</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I113" s="20" t="s">
+      <c r="I113" s="6" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>280</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>11</v>
@@ -5555,53 +5576,53 @@
         <v>12</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I114" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="D115" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C115" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="H115" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
-        <v>284</v>
+      <c r="A116" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>11</v>
@@ -5613,21 +5634,21 @@
         <v>12</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I116" s="14" t="s">
+      <c r="I116" s="20" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="12" t="s">
         <v>288</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>289</v>
@@ -5647,7 +5668,7 @@
       <c r="H117" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I117" s="20" t="s">
+      <c r="I117" s="14" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5656,32 +5677,61 @@
         <v>292</v>
       </c>
       <c r="B118" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>290</v>
-      </c>
       <c r="H118" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I118" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>293</v>
       </c>
+      <c r="D119" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I118" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}"/>
+  <autoFilter ref="A1:I119" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Web/coyni/resources/testScript-Api.xlsx
+++ b/Web/coyni/resources/testScript-Api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6843536D-C8B0-4FF9-B138-088CBDF1D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C51418D-4098-4B17-B371-E8C500DFCFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="10455" windowHeight="9180" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="10455" windowHeight="9180" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1045,19 +1045,6 @@
     <t>testTokenWalletWithdrawSignetAccountTransactions</t>
   </si>
   <si>
-    <t>coyni.apibusiness.tests.TokenWalletTest,
-testTokenWalletWithdrawSignetAccountTransactions,
--pheading,
--psignetAccountHeading,
--psignetDescription,
--psignetAccountHeading,
--pamount,
--pdescription,
--pnote,
--pcode,
--ptransactionInProgHdg</t>
-  </si>
-  <si>
     <t>testTokenWalletWithdrawSignetAccountTransactionsInvalidAmount</t>
   </si>
   <si>
@@ -1343,13 +1330,6 @@
   </si>
   <si>
     <t>testBusinessSettingsAddExternalBank</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.BusinessProfileTest,
-testBusinessSettingsAddExternalBank,
--pexpBankName,
--pexpUserName,
--pexpPassword</t>
   </si>
   <si>
     <t>testBusinessSettingsDeleteExternalBank</t>
@@ -1822,6 +1802,31 @@
   </si>
   <si>
     <t>TestData_Api.xlsx,BuyTokens</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.TokenWalletTest,
+testTokenWalletWithdrawSignetAccountTransactions,
+-pheading,
+-psignetAccountHeading,
+-psignetDescription,
+-psignetAccountHeading,
+-pwithdrawsignetAccountHeading,
+-pamount,
+-pdescription,
+-pnote,
+-pcode,
+-ptransactionInProgHdg</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessProfileTest,
+testBusinessSettingsAddExternalBank,
+-pexpBankName,
+-pexpUserName,
+-pexpPassword,
+-proutingNumber,
+-pconfirmRoutingNumber,
+-paccountNumber,
+-pconfirmAccountNumber</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1966,15 +1971,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2310,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>10</v>
@@ -2390,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>10</v>
@@ -2419,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
@@ -2448,7 +2446,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
@@ -2477,7 +2475,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>10</v>
@@ -2506,7 +2504,7 @@
         <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>10</v>
@@ -2535,7 +2533,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>10</v>
@@ -2564,7 +2562,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>10</v>
@@ -2593,7 +2591,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>10</v>
@@ -2622,7 +2620,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>10</v>
@@ -2651,7 +2649,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>10</v>
@@ -2680,7 +2678,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
@@ -2709,7 +2707,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>10</v>
@@ -2738,7 +2736,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>10</v>
@@ -2767,7 +2765,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>10</v>
@@ -2796,7 +2794,7 @@
         <v>46</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>10</v>
@@ -2825,7 +2823,7 @@
         <v>48</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>10</v>
@@ -2854,7 +2852,7 @@
         <v>50</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2883,7 +2881,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>10</v>
@@ -2912,7 +2910,7 @@
         <v>52</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
@@ -2938,7 +2936,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>55</v>
@@ -2964,7 +2962,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>55</v>
@@ -2990,7 +2988,7 @@
         <v>60</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>55</v>
@@ -3016,7 +3014,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>55</v>
@@ -3042,7 +3040,7 @@
         <v>63</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>64</v>
@@ -3068,7 +3066,7 @@
         <v>66</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>64</v>
@@ -3094,7 +3092,7 @@
         <v>67</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>64</v>
@@ -3120,7 +3118,7 @@
         <v>69</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>64</v>
@@ -3146,7 +3144,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>64</v>
@@ -3172,7 +3170,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>72</v>
@@ -3198,7 +3196,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>72</v>
@@ -3224,7 +3222,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>72</v>
@@ -3250,7 +3248,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>72</v>
@@ -3271,29 +3269,29 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="28" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:9" s="25" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C35" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="25" t="s">
+      <c r="D35" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="27" t="s">
+      <c r="H35" s="24" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3302,7 +3300,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>72</v>
@@ -3328,7 +3326,7 @@
         <v>79</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>80</v>
@@ -3357,7 +3355,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>80</v>
@@ -3386,7 +3384,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>80</v>
@@ -3415,7 +3413,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>105</v>
@@ -3439,32 +3437,32 @@
         <v>107</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="28" customFormat="1" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:9" s="25" customFormat="1" ht="240.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>108</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C41" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="25" t="s">
+      <c r="D41" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="27" t="s">
+      <c r="H41" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="24" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3473,7 +3471,7 @@
         <v>110</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>105</v>
@@ -3502,7 +3500,7 @@
         <v>113</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>105</v>
@@ -3531,7 +3529,7 @@
         <v>115</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>105</v>
@@ -3560,7 +3558,7 @@
         <v>117</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>105</v>
@@ -3589,7 +3587,7 @@
         <v>119</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>120</v>
@@ -3618,7 +3616,7 @@
         <v>123</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>120</v>
@@ -3647,7 +3645,7 @@
         <v>125</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>120</v>
@@ -3676,7 +3674,7 @@
         <v>127</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>120</v>
@@ -3705,7 +3703,7 @@
         <v>129</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>120</v>
@@ -3734,7 +3732,7 @@
         <v>131</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>120</v>
@@ -3763,7 +3761,7 @@
         <v>133</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>120</v>
@@ -3792,7 +3790,7 @@
         <v>135</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>120</v>
@@ -3821,7 +3819,7 @@
         <v>137</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>120</v>
@@ -3850,7 +3848,7 @@
         <v>139</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>140</v>
@@ -3876,10 +3874,10 @@
     </row>
     <row r="56" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>120</v>
@@ -3900,44 +3898,44 @@
         <v>14</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="28" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="29" t="s">
+      <c r="B57" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H57" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="27" t="s">
+      <c r="H57" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="26" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>142</v>
@@ -3961,32 +3959,32 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="28" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A59" s="29" t="s">
+    <row r="59" spans="1:9" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="C59" s="29" t="s">
+      <c r="B59" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="D59" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="29" t="s">
+      <c r="D59" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H59" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="27" t="s">
+      <c r="H59" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="24" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3995,7 +3993,7 @@
         <v>150</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>151</v>
@@ -4024,7 +4022,7 @@
         <v>153</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>151</v>
@@ -4048,7 +4046,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>155</v>
       </c>
@@ -4074,41 +4072,41 @@
         <v>14</v>
       </c>
       <c r="I62" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="25" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A63" s="26" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" s="24" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="D63" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="21" t="s">
+      <c r="D63" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H63" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I63" s="23" t="s">
-        <v>299</v>
+      <c r="H63" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>298</v>
@@ -4132,12 +4130,12 @@
         <v>14</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>298</v>
@@ -4161,12 +4159,12 @@
         <v>14</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>298</v>
@@ -4190,12 +4188,12 @@
         <v>14</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>298</v>
@@ -4219,12 +4217,12 @@
         <v>14</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>298</v>
@@ -4248,18 +4246,18 @@
         <v>14</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>168</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>11</v>
@@ -4274,21 +4272,21 @@
         <v>121</v>
       </c>
       <c r="H69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I69" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>11</v>
@@ -4306,18 +4304,18 @@
         <v>100</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>11</v>
@@ -4335,18 +4333,18 @@
         <v>100</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>11</v>
@@ -4364,18 +4362,18 @@
         <v>100</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>178</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>179</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>11</v>
@@ -4393,18 +4391,18 @@
         <v>100</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>11</v>
@@ -4418,22 +4416,22 @@
       <c r="G74" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H74" s="23" t="s">
+      <c r="H74" s="21" t="s">
         <v>100</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>11</v>
@@ -4451,105 +4449,105 @@
         <v>100</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F77" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G77" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="H77" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>17</v>
@@ -4558,82 +4556,82 @@
         <v>12</v>
       </c>
       <c r="F79" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>68</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C81" s="11" t="s">
+      <c r="D81" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>142</v>
@@ -4648,21 +4646,21 @@
         <v>12</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>208</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>142</v>
@@ -4677,13 +4675,13 @@
         <v>12</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H83" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -4706,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>14</v>
@@ -4717,7 +4715,7 @@
     </row>
     <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>298</v>
@@ -4735,18 +4733,18 @@
         <v>12</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>298</v>
@@ -4764,18 +4762,18 @@
         <v>12</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H86" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>298</v>
@@ -4793,18 +4791,18 @@
         <v>12</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H87" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>298</v>
@@ -4822,18 +4820,18 @@
         <v>12</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>298</v>
@@ -4848,21 +4846,21 @@
         <v>12</v>
       </c>
       <c r="F89" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G89" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="H89" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>298</v>
@@ -4880,18 +4878,18 @@
         <v>12</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>298</v>
@@ -4909,18 +4907,18 @@
         <v>12</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>298</v>
@@ -4938,24 +4936,24 @@
         <v>12</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I92" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>11</v>
@@ -4967,24 +4965,24 @@
         <v>1</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>11</v>
@@ -4996,24 +4994,24 @@
         <v>12</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>11</v>
@@ -5025,24 +5023,24 @@
         <v>12</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>11</v>
@@ -5054,24 +5052,24 @@
         <v>12</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>11</v>
@@ -5083,24 +5081,24 @@
         <v>12</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>11</v>
@@ -5112,24 +5110,24 @@
         <v>12</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>17</v>
@@ -5138,27 +5136,27 @@
         <v>12</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B100" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>17</v>
@@ -5170,53 +5168,53 @@
         <v>12</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>100</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="H101" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D102" s="18" t="s">
         <v>11</v>
@@ -5228,24 +5226,24 @@
         <v>12</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H102" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>11</v>
@@ -5257,24 +5255,24 @@
         <v>12</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H103" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D104" s="18" t="s">
         <v>11</v>
@@ -5286,53 +5284,53 @@
         <v>12</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H104" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="14" t="s">
         <v>258</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="D105" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D106" s="18" t="s">
         <v>11</v>
@@ -5344,24 +5342,24 @@
         <v>12</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H106" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D107" s="18" t="s">
         <v>11</v>
@@ -5373,24 +5371,24 @@
         <v>12</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H107" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D108" s="18" t="s">
         <v>11</v>
@@ -5402,53 +5400,53 @@
         <v>12</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H108" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D109" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H109" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D110" s="18" t="s">
         <v>11</v>
@@ -5460,53 +5458,53 @@
         <v>12</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H110" s="14" t="s">
         <v>14</v>
       </c>
       <c r="I110" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C111" s="11" t="s">
+      <c r="H111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>11</v>
@@ -5518,24 +5516,24 @@
         <v>12</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>11</v>
@@ -5547,53 +5545,53 @@
         <v>12</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C114" s="11" t="s">
+      <c r="H114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="20" t="s">
         <v>281</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="20" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>11</v>
@@ -5605,24 +5603,24 @@
         <v>12</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>11</v>
@@ -5634,82 +5632,82 @@
         <v>12</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I116" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C117" s="11" t="s">
+      <c r="H117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I117" s="14" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C118" s="11" t="s">
+      <c r="H118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="20" t="s">
         <v>293</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" s="20" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>298</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>11</v>
@@ -5721,13 +5719,13 @@
         <v>12</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I119" s="20" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/testScript-Api.xlsx
+++ b/Web/coyni/resources/testScript-Api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebAutomation\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E522AAE4-4CE1-488B-9A1E-016114F88EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3BAC7F-52CF-4004-B78E-EA1C608B44B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="4530" windowWidth="10455" windowHeight="9180" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="304">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -977,18 +977,6 @@
 -pheading2</t>
   </si>
   <si>
-    <t>tokenWalletBuyTokensSignetAccount</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.TokenWalletTest,
-tokenWalletBuyTokensSignetAccount,
--pheading,
--psubHeading,
--pamount,
--pcode,
--ppreviewHeading</t>
-  </si>
-  <si>
     <t>testTokenWalletWithdrawBankAccount</t>
   </si>
   <si>
@@ -1758,9 +1746,6 @@
 -pheading</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>coyni.apibusiness.tests.TokenWalletTest,
 testTokenWalletWithdrawSignetAccountTransactionsInvalidAmount,
 -pheading,
@@ -1834,6 +1819,38 @@
 -perrMsg,
 -pcolor,
 -pelementName</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessProfileTest,
+testBusinenssSettingsAddCogentAccount,
+-pnewSignetAccount,
+-pheading,
+-pwalletID,
+-paddress1,
+-paddress2,
+-pcity,
+-pstate,
+-pzipCode,
+-pheading1,
+-pheading2</t>
+  </si>
+  <si>
+    <t>testBusinenssSettingsAddCogentAccount</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.TokenWalletTest,
+tokenWalletBuyTokensCogentAccount,
+-pheading,
+-psubHeading,
+-pamount,
+-pcode,
+-ppreviewHeading</t>
+  </si>
+  <si>
+    <t>tokenWalletBuyTokensCogentAccount</t>
   </si>
 </sst>
 </file>
@@ -2008,12 +2025,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2022,6 +2033,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2339,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>10</v>
@@ -2408,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>15</v>
@@ -2419,7 +2436,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -2437,10 +2454,10 @@
         <v>13</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="195" x14ac:dyDescent="0.25">
@@ -2448,7 +2465,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -2466,7 +2483,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>20</v>
@@ -2477,7 +2494,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -2495,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>22</v>
@@ -2506,7 +2523,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -2524,7 +2541,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>24</v>
@@ -2535,7 +2552,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -2553,7 +2570,7 @@
         <v>13</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>26</v>
@@ -2564,7 +2581,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>10</v>
@@ -2582,7 +2599,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>28</v>
@@ -2593,7 +2610,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>10</v>
@@ -2611,7 +2628,7 @@
         <v>13</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>30</v>
@@ -2622,7 +2639,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>10</v>
@@ -2640,7 +2657,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>32</v>
@@ -2651,7 +2668,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>10</v>
@@ -2669,7 +2686,7 @@
         <v>13</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>34</v>
@@ -2680,7 +2697,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -2698,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>36</v>
@@ -2709,7 +2726,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>10</v>
@@ -2727,7 +2744,7 @@
         <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>38</v>
@@ -2738,7 +2755,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
@@ -2756,7 +2773,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>40</v>
@@ -2767,7 +2784,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
@@ -2785,7 +2802,7 @@
         <v>13</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>42</v>
@@ -2796,7 +2813,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -2814,7 +2831,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>44</v>
@@ -2825,7 +2842,7 @@
         <v>45</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
@@ -2843,7 +2860,7 @@
         <v>13</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>46</v>
@@ -2854,7 +2871,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>10</v>
@@ -2872,7 +2889,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>48</v>
@@ -2883,7 +2900,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>10</v>
@@ -2901,7 +2918,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>50</v>
@@ -2912,7 +2929,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>10</v>
@@ -2930,7 +2947,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>52</v>
@@ -2941,7 +2958,7 @@
         <v>51</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>10</v>
@@ -2968,7 +2985,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>53</v>
@@ -2995,7 +3012,7 @@
         <v>57</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>53</v>
@@ -3022,7 +3039,7 @@
         <v>58</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>53</v>
@@ -3049,7 +3066,7 @@
         <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>53</v>
@@ -3076,7 +3093,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>62</v>
@@ -3103,7 +3120,7 @@
         <v>64</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>62</v>
@@ -3130,7 +3147,7 @@
         <v>65</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>62</v>
@@ -3157,7 +3174,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>62</v>
@@ -3184,7 +3201,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>62</v>
@@ -3211,7 +3228,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>70</v>
@@ -3238,7 +3255,7 @@
         <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>70</v>
@@ -3265,7 +3282,7 @@
         <v>73</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>70</v>
@@ -3292,7 +3309,7 @@
         <v>74</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>70</v>
@@ -3319,7 +3336,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>70</v>
@@ -3346,7 +3363,7 @@
         <v>76</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>70</v>
@@ -3373,7 +3390,7 @@
         <v>77</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>78</v>
@@ -3402,7 +3419,7 @@
         <v>80</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>78</v>
@@ -3431,7 +3448,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>78</v>
@@ -3460,7 +3477,7 @@
         <v>102</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>103</v>
@@ -3489,7 +3506,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>103</v>
@@ -3518,7 +3535,7 @@
         <v>108</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>103</v>
@@ -3547,7 +3564,7 @@
         <v>111</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>103</v>
@@ -3576,7 +3593,7 @@
         <v>113</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>103</v>
@@ -3605,7 +3622,7 @@
         <v>115</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>103</v>
@@ -3634,7 +3651,7 @@
         <v>117</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>118</v>
@@ -3663,7 +3680,7 @@
         <v>121</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>118</v>
@@ -3692,7 +3709,7 @@
         <v>123</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>118</v>
@@ -3721,7 +3738,7 @@
         <v>125</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>118</v>
@@ -3750,7 +3767,7 @@
         <v>127</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>118</v>
@@ -3779,7 +3796,7 @@
         <v>129</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>118</v>
@@ -3808,7 +3825,7 @@
         <v>131</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>118</v>
@@ -3837,7 +3854,7 @@
         <v>133</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>118</v>
@@ -3866,7 +3883,7 @@
         <v>135</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>118</v>
@@ -3895,7 +3912,7 @@
         <v>137</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>138</v>
@@ -3921,10 +3938,10 @@
     </row>
     <row r="56" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>118</v>
@@ -3945,18 +3962,18 @@
         <v>14</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="37" t="s">
         <v>141</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>294</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>297</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>11</v>
@@ -3978,22 +3995,22 @@
       </c>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
-        <v>144</v>
+      <c r="A58" s="38" t="s">
+        <v>300</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D58" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="37" t="s">
+      <c r="D58" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="35" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="21" t="s">
@@ -4002,16 +4019,16 @@
       <c r="H58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="38" t="s">
-        <v>145</v>
+      <c r="I58" s="36" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>146</v>
+        <v>303</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>142</v>
@@ -4032,18 +4049,18 @@
         <v>14</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>147</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>11</v>
@@ -4061,18 +4078,18 @@
         <v>14</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>11</v>
@@ -4090,18 +4107,18 @@
         <v>14</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
@@ -4119,18 +4136,18 @@
         <v>14</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D63" s="21" t="s">
         <v>11</v>
@@ -4148,18 +4165,18 @@
         <v>14</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
@@ -4177,18 +4194,18 @@
         <v>14</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>11</v>
@@ -4206,18 +4223,18 @@
         <v>14</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>11</v>
@@ -4235,18 +4252,18 @@
         <v>14</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>11</v>
@@ -4264,18 +4281,18 @@
         <v>14</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>11</v>
@@ -4293,18 +4310,18 @@
         <v>14</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
@@ -4319,21 +4336,21 @@
         <v>119</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>11</v>
@@ -4351,18 +4368,18 @@
         <v>98</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>11</v>
@@ -4380,18 +4397,18 @@
         <v>98</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
@@ -4409,18 +4426,18 @@
         <v>98</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>11</v>
@@ -4438,18 +4455,18 @@
         <v>98</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
@@ -4467,18 +4484,18 @@
         <v>98</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>11</v>
@@ -4496,47 +4513,47 @@
         <v>98</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>184</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>186</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>17</v>
@@ -4548,53 +4565,53 @@
         <v>60</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="H78" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>17</v>
@@ -4603,27 +4620,27 @@
         <v>12</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>17</v>
@@ -4635,50 +4652,50 @@
         <v>66</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H80" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>140</v>
@@ -4693,21 +4710,21 @@
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H82" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>140</v>
@@ -4722,13 +4739,13 @@
         <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H83" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="180" x14ac:dyDescent="0.25">
@@ -4736,7 +4753,7 @@
         <v>144</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>140</v>
@@ -4751,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>14</v>
@@ -4762,10 +4779,10 @@
     </row>
     <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>140</v>
@@ -4780,21 +4797,21 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>140</v>
@@ -4809,21 +4826,21 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>140</v>
@@ -4838,21 +4855,21 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>140</v>
@@ -4867,21 +4884,21 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>140</v>
@@ -4893,24 +4910,24 @@
         <v>12</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>140</v>
@@ -4925,21 +4942,21 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H90" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>140</v>
@@ -4954,21 +4971,21 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>140</v>
@@ -4983,24 +5000,24 @@
         <v>12</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>11</v>
@@ -5012,24 +5029,24 @@
         <v>1</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H93" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>11</v>
@@ -5041,24 +5058,24 @@
         <v>12</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>11</v>
@@ -5070,24 +5087,24 @@
         <v>12</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H95" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>11</v>
@@ -5099,24 +5116,24 @@
         <v>12</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>11</v>
@@ -5128,24 +5145,24 @@
         <v>12</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>11</v>
@@ -5157,24 +5174,24 @@
         <v>12</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I98" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>17</v>
@@ -5183,27 +5200,27 @@
         <v>12</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H99" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I99" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>17</v>
@@ -5215,53 +5232,53 @@
         <v>12</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>98</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="11" t="s">
         <v>245</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C101" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="H101" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D102" s="26" t="s">
         <v>11</v>
@@ -5273,24 +5290,24 @@
         <v>12</v>
       </c>
       <c r="G102" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H102" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D103" s="26" t="s">
         <v>11</v>
@@ -5302,24 +5319,24 @@
         <v>12</v>
       </c>
       <c r="G103" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H103" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D104" s="26" t="s">
         <v>11</v>
@@ -5331,53 +5348,53 @@
         <v>12</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H104" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="20" t="s">
         <v>254</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="H105" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="20" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D106" s="26" t="s">
         <v>11</v>
@@ -5389,24 +5406,24 @@
         <v>12</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H106" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I106" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D107" s="26" t="s">
         <v>11</v>
@@ -5418,24 +5435,24 @@
         <v>12</v>
       </c>
       <c r="G107" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H107" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I107" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D108" s="26" t="s">
         <v>11</v>
@@ -5447,53 +5464,53 @@
         <v>12</v>
       </c>
       <c r="G108" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H108" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I108" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D109" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" s="20" t="s">
         <v>263</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C109" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D109" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="H109" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="20" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D110" s="26" t="s">
         <v>11</v>
@@ -5505,53 +5522,53 @@
         <v>12</v>
       </c>
       <c r="G110" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H110" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I110" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="H111" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>11</v>
@@ -5563,24 +5580,24 @@
         <v>12</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H112" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>11</v>
@@ -5592,53 +5609,53 @@
         <v>12</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H113" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="H114" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" s="28" t="s">
         <v>277</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="28" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>11</v>
@@ -5650,24 +5667,24 @@
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H115" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I115" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>11</v>
@@ -5679,82 +5696,82 @@
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H116" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I116" s="28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="H117" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="20" t="s">
         <v>285</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H117" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I117" s="20" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B118" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="H118" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" s="28" t="s">
         <v>289</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H118" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I118" s="28" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>11</v>
@@ -5766,13 +5783,13 @@
         <v>12</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H119" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I119" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/Web/coyni/resources/testScript-Api.xlsx
+++ b/Web/coyni/resources/testScript-Api.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\March17Automation\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\28-03-2023\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A056F1C-E40D-480F-9CA7-78FBD5AD101C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B5269-3039-47F4-95AC-141C3B8AB1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
   </bookViews>
@@ -783,17 +783,6 @@
     <t>testTokenWalletWithdrawToUsdViaInstantPay</t>
   </si>
   <si>
-    <t>coyni.apibusiness.tests.TokenWalletTest,
-testTokenWalletWithdrawToUsdViaInstantPay,
--pheading,
--plast4digits,
--pinstantPayHeading,
--pamount,
--pmessage,
--ptransactionInProgHdg,
--pcode</t>
-  </si>
-  <si>
     <t>testWithdrawToUSDViaInstantPayWithInvalidDetails</t>
   </si>
   <si>
@@ -962,29 +951,10 @@
     <t>testData_Api.xlsx,AccountLimits</t>
   </si>
   <si>
-    <t>testBusinessSettingsNoTeamMember</t>
-  </si>
-  <si>
     <t>testData_Api.xlsx,Team</t>
   </si>
   <si>
     <t>testBusinessSettingsAddTeamMember</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.BusinessSettingsTest,
-testBusinessSettingsAddTeamMember,
--paddTeamHeading,
--pfirstName,
--plastName,
--pemaildet,
--pphone,
--pcustomHeading,
--proleName,
--pmessage,
--pexpHeading,
--poption,
--peleName,
--ptitle</t>
   </si>
   <si>
     <t>testBusinessSettingsTeamFilters</t>
@@ -1385,17 +1355,6 @@
 -paccountID,
 -paccountStatus
 </t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.BusinessSettingsTest,_x000D_
-testBusinessSettingsAddExternalBank,_x000D_
--pexpBankName,_x000D_
--pexpUserName,_x000D_
--pexpPassword,_x000D_
--proutingNumber,_x000D_
--pconfirmRoutingNumber,_x000D_
--paccountNumber,_x000D_
--pconfirmAccountNumber</t>
   </si>
   <si>
     <t>coyni.apibusiness.tests.BusinessSettingsTest,_x000D_
@@ -1752,11 +1711,6 @@
   </si>
   <si>
     <t>coyni.apibusiness.tests.BusinessSettingsTest,
-testBusinessSettingsNoTeamMember,
--pheading</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.BusinessSettingsTest,
 testBusinessSettingsTeamFilters,
 -pheading</t>
   </si>
@@ -1837,6 +1791,57 @@
 -pipAddress,
 -pipDescription,
 -psuccessHeading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coyni.apibusiness.tests.TokenWalletTest,
+testTokenWalletWithdrawToUsdViaInstantPay,
+-pheading,
+-plast4digits,
+-pinstantPayHeading,
+-pamount,
+-pmessage,
+-ptransactionInProgHdg,
+-pcode,
+-ploginHeading,
+-ploginDescription,
+-pemail,
+-ppassword,
+-pauthyHeading,
+-pauthyDescription
+</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessSettingsTest,
+testBusinessSettingsAddTeamMember,
+-paddTeamHeading,
+-pfirstName,
+-plastName,
+-pemaildet,
+-pphone,
+-pcustomHeading,
+-proleName,
+-pmessage,
+-pexpHeading,
+-poption,
+-peleName,
+-ptoastTitle,
+-ptoastMessage,
+-pmessage</t>
+  </si>
+  <si>
+    <t>testTeamFilters</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessSettingsTest,
+testTeamFilters,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessSettingsTest,
+testBusinessSettingsAddExternalBank,
+-pexpBankName,
+-pexpUserName,
+-pexpPassword</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1999,12 +2004,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2017,6 +2016,33 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,6 +2374,7 @@
     <col min="7" max="7" width="41" customWidth="1"/>
     <col min="8" max="8" width="40.140625" customWidth="1"/>
     <col min="9" max="9" width="84.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2384,7 +2411,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>34</v>
@@ -2411,7 +2438,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>34</v>
@@ -2438,7 +2465,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>34</v>
@@ -2465,7 +2492,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>34</v>
@@ -2492,7 +2519,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>43</v>
@@ -2519,7 +2546,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>43</v>
@@ -2546,7 +2573,7 @@
         <v>46</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>43</v>
@@ -2573,7 +2600,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>43</v>
@@ -2600,7 +2627,7 @@
         <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>43</v>
@@ -2627,7 +2654,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>51</v>
@@ -2654,7 +2681,7 @@
         <v>53</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>51</v>
@@ -2681,7 +2708,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>51</v>
@@ -2708,7 +2735,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>51</v>
@@ -2735,7 +2762,7 @@
         <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>51</v>
@@ -2762,7 +2789,7 @@
         <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>51</v>
@@ -2786,13 +2813,13 @@
     </row>
     <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
@@ -2804,42 +2831,42 @@
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="270" x14ac:dyDescent="0.25">
@@ -2847,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -2862,10 +2889,10 @@
         <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>14</v>
@@ -2876,7 +2903,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
@@ -2891,13 +2918,13 @@
         <v>17</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -2905,7 +2932,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
@@ -2920,10 +2947,10 @@
         <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>19</v>
@@ -2934,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>10</v>
@@ -2949,10 +2976,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>21</v>
@@ -2963,7 +2990,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>10</v>
@@ -2978,10 +3005,10 @@
         <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>23</v>
@@ -2992,7 +3019,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>10</v>
@@ -3007,13 +3034,13 @@
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="255" x14ac:dyDescent="0.25">
@@ -3021,7 +3048,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>10</v>
@@ -3036,13 +3063,13 @@
         <v>17</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="240" x14ac:dyDescent="0.25">
@@ -3050,7 +3077,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>10</v>
@@ -3065,10 +3092,10 @@
         <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>27</v>
@@ -3079,7 +3106,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>10</v>
@@ -3094,13 +3121,13 @@
         <v>12</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="315" x14ac:dyDescent="0.25">
@@ -3108,7 +3135,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>10</v>
@@ -3123,13 +3150,13 @@
         <v>12</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -3137,7 +3164,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>10</v>
@@ -3152,10 +3179,10 @@
         <v>12</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>31</v>
@@ -3166,7 +3193,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
@@ -3181,13 +3208,13 @@
         <v>12</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -3195,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>10</v>
@@ -3210,19 +3237,19 @@
         <v>12</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -3235,7 +3262,7 @@
     <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -3248,7 +3275,7 @@
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -3261,7 +3288,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -3274,7 +3301,7 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -3289,7 +3316,7 @@
         <v>96</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>97</v>
@@ -3318,7 +3345,7 @@
         <v>100</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>97</v>
@@ -3347,7 +3374,7 @@
         <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>97</v>
@@ -3376,7 +3403,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>97</v>
@@ -3405,7 +3432,7 @@
         <v>106</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>97</v>
@@ -3423,7 +3450,7 @@
         <v>98</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>107</v>
@@ -3434,7 +3461,7 @@
         <v>108</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>97</v>
@@ -3452,7 +3479,7 @@
         <v>98</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>109</v>
@@ -3463,7 +3490,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>97</v>
@@ -3481,7 +3508,7 @@
         <v>98</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>111</v>
@@ -3492,7 +3519,7 @@
         <v>112</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>97</v>
@@ -3510,21 +3537,21 @@
         <v>98</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I44" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="29" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>11</v>
@@ -3539,10 +3566,10 @@
         <v>98</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
@@ -3550,7 +3577,7 @@
         <v>114</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>97</v>
@@ -3568,7 +3595,7 @@
         <v>98</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I46" s="14" t="s">
         <v>115</v>
@@ -3579,7 +3606,7 @@
         <v>116</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>117</v>
@@ -3597,21 +3624,21 @@
         <v>98</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>11</v>
@@ -3626,21 +3653,21 @@
         <v>98</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>11</v>
@@ -3658,47 +3685,47 @@
         <v>77</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="19" t="s">
+      <c r="D50" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>260</v>
+      <c r="H50" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D51" s="19" t="s">
         <v>11</v>
@@ -3713,7 +3740,7 @@
         <v>98</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I51" s="14" t="s">
         <v>119</v>
@@ -3721,13 +3748,13 @@
     </row>
     <row r="52" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52" s="19" t="s">
         <v>11</v>
@@ -3745,7 +3772,7 @@
         <v>77</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -3753,7 +3780,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>121</v>
@@ -3771,18 +3798,18 @@
         <v>98</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>117</v>
@@ -3803,15 +3830,15 @@
         <v>13</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>121</v>
@@ -3829,18 +3856,18 @@
         <v>98</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>121</v>
@@ -3858,18 +3885,18 @@
         <v>98</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="26" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>121</v>
@@ -3890,15 +3917,15 @@
         <v>77</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>121</v>
@@ -3916,21 +3943,21 @@
         <v>98</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>11</v>
@@ -3945,10 +3972,10 @@
         <v>98</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="225" x14ac:dyDescent="0.25">
@@ -3956,7 +3983,7 @@
         <v>122</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>121</v>
@@ -3974,18 +4001,18 @@
         <v>98</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>121</v>
@@ -4003,18 +4030,18 @@
         <v>98</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>121</v>
@@ -4032,50 +4059,50 @@
         <v>98</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="35" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
-        <v>278</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>274</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C63" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="32" t="s">
         <v>130</v>
-      </c>
-      <c r="D63" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I63" s="34" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
@@ -4093,18 +4120,18 @@
         <v>77</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
@@ -4122,15 +4149,15 @@
         <v>77</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>117</v>
@@ -4151,15 +4178,15 @@
         <v>77</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>117</v>
@@ -4180,15 +4207,15 @@
         <v>77</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>117</v>
@@ -4209,18 +4236,18 @@
         <v>77</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
@@ -4232,53 +4259,53 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>184</v>
+      <c r="A70" s="39" t="s">
+        <v>181</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H70" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H70" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="10" t="s">
-        <v>256</v>
+      <c r="I70" s="22" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>11</v>
@@ -4290,24 +4317,24 @@
         <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
@@ -4319,24 +4346,24 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>11</v>
@@ -4348,24 +4375,24 @@
         <v>12</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
@@ -4377,24 +4404,24 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>11</v>
@@ -4406,24 +4433,24 @@
         <v>12</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>11</v>
@@ -4435,24 +4462,24 @@
         <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>16</v>
@@ -4464,24 +4491,24 @@
         <v>47</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>11</v>
@@ -4493,53 +4520,53 @@
         <v>12</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="D79" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>11</v>
@@ -4551,24 +4578,24 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>16</v>
@@ -4577,27 +4604,27 @@
         <v>12</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>11</v>
@@ -4609,24 +4636,24 @@
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>16</v>
@@ -4635,28 +4662,28 @@
         <v>12</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D84" s="3" t="s">
         <v>11</v>
       </c>
@@ -4667,21 +4694,21 @@
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>118</v>
@@ -4696,21 +4723,21 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>118</v>
@@ -4725,21 +4752,21 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>118</v>
@@ -4754,21 +4781,21 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>118</v>
@@ -4783,21 +4810,21 @@
         <v>12</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>118</v>
@@ -4812,21 +4839,21 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>118</v>
@@ -4841,21 +4868,21 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>118</v>
@@ -4870,21 +4897,21 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>118</v>
@@ -4896,24 +4923,24 @@
         <v>12</v>
       </c>
       <c r="F92" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>118</v>
@@ -4928,21 +4955,21 @@
         <v>12</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>118</v>
@@ -4957,24 +4984,24 @@
         <v>12</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H94" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>11</v>
@@ -4986,24 +5013,24 @@
         <v>12</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H95" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>11</v>
@@ -5015,25 +5042,25 @@
         <v>1</v>
       </c>
       <c r="G96" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H96" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>162</v>
-      </c>
       <c r="D97" s="16" t="s">
         <v>11</v>
       </c>
@@ -5044,25 +5071,25 @@
         <v>12</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H97" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>164</v>
-      </c>
       <c r="D98" s="8" t="s">
         <v>11</v>
       </c>
@@ -5073,24 +5100,24 @@
         <v>12</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>11</v>
@@ -5102,24 +5129,24 @@
         <v>12</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H99" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I99" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="I99" s="18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>11</v>
@@ -5131,24 +5158,24 @@
         <v>12</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H100" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>168</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>169</v>
+        <v>307</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>11</v>
@@ -5160,24 +5187,24 @@
         <v>12</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H101" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>16</v>
@@ -5186,27 +5213,27 @@
         <v>12</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H102" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>16</v>
@@ -5218,24 +5245,24 @@
         <v>12</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H103" s="10" t="s">
         <v>77</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D104" s="23" t="s">
         <v>11</v>
@@ -5247,53 +5274,53 @@
         <v>12</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>175</v>
+      <c r="A105" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D105" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H105" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="H105" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I105" s="18" t="s">
-        <v>309</v>
+      <c r="I105" s="38" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D106" s="23" t="s">
         <v>11</v>
@@ -5305,24 +5332,24 @@
         <v>12</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D107" s="23" t="s">
         <v>11</v>
@@ -5334,24 +5361,24 @@
         <v>12</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H107" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A108" s="28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D108" s="23" t="s">
         <v>11</v>
@@ -5363,53 +5390,53 @@
         <v>12</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H108" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>179</v>
+      <c r="A109" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="H109" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H109" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="31" t="s">
-        <v>255</v>
+      <c r="I109" s="38" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D110" s="23" t="s">
         <v>11</v>
@@ -5421,13 +5448,13 @@
         <v>12</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H110" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="195" x14ac:dyDescent="0.25">
@@ -5435,7 +5462,7 @@
         <v>81</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>82</v>
@@ -5464,7 +5491,7 @@
         <v>85</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>82</v>
@@ -5493,7 +5520,7 @@
         <v>87</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>82</v>
@@ -5522,7 +5549,7 @@
         <v>90</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>82</v>
@@ -5551,7 +5578,7 @@
         <v>92</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>82</v>
@@ -5580,7 +5607,7 @@
         <v>94</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>82</v>
@@ -5606,10 +5633,10 @@
     </row>
     <row r="117" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>82</v>
@@ -5630,15 +5657,15 @@
         <v>13</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>82</v>
@@ -5659,15 +5686,15 @@
         <v>13</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>82</v>
@@ -5688,18 +5715,18 @@
         <v>13</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>11</v>
@@ -5711,24 +5738,24 @@
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I120" s="25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>11</v>
@@ -5740,24 +5767,24 @@
         <v>12</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I121" s="25" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>11</v>
@@ -5769,13 +5796,13 @@
         <v>12</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H122" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I122" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -5783,7 +5810,7 @@
         <v>57</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>58</v>
@@ -5812,7 +5839,7 @@
         <v>60</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>58</v>
@@ -5841,7 +5868,7 @@
         <v>62</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>58</v>

--- a/Web/coyni/resources/testScript-Api.xlsx
+++ b/Web/coyni/resources/testScript-Api.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\28-03-2023\coyni-automation\Web\coyni\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\April 4\coyni-automation\Web\coyni\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685B5269-3039-47F4-95AC-141C3B8AB1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D866BB7C-B797-4BD1-AF66-CA5DC7E7481C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C69601D5-11F0-4855-BF49-0402CA84EEE6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="312">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -90,26 +90,6 @@
 -pauthyDescription,
 -pcode,
 -pmessage</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.BusinessApplicationTest,
-testCompanyInformationView,
--pstartPageDescription,
--pcompanyInfoHeading,
--pcompanyInfoDescription,
--pcompanyName,
--pssn_ein_tin,
--pcompanyEmail,
--pcompanyPhoneNumber,
--paddressline1,
--paddressline2,
--pcity,
--pstate,
--pzipCode,
--pcountry,
--pfolderName,
--pfileName,
--pbusinessEntity</t>
   </si>
   <si>
     <t>verify CompanyInfoWithInvalidData</t>
@@ -665,29 +645,6 @@
 -pborder</t>
   </si>
   <si>
-    <t>Token Wallet Filters</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.TokenWalletTest,
-testTokenWalletFilters,
--pvalidateDate,
--pstartDate,
--pendDate,
--pexpStartDate,
--pexpEndDate,
--pvalidateTransactionType,
--pTransactionTypecheckBoxList,
--pvalidateTransactionSubType,
--pTransactionSubTypecheckboxList,
--pvalidateTransactionStatus,
--pTransactionStatus,
--pvalidateTransactionAmount,
--pfromCYN,
--ptoCYN,
--pValidateReferenceID,
--preferenceId</t>
-  </si>
-  <si>
     <t>Token Wallet Filters Clear All Flow</t>
   </si>
   <si>
@@ -910,9 +867,6 @@
   </si>
   <si>
     <t>testBusinessSettingsAddExternalBank</t>
-  </si>
-  <si>
-    <t>testBusinessSettingsDeleteExternalBank</t>
   </si>
   <si>
     <t>testBusinessSettingsAddDebitCard</t>
@@ -1317,9 +1271,6 @@
     <t>verify Buy Token Bank Account Transaction details</t>
   </si>
   <si>
-    <t>tesAddBankAccount</t>
-  </si>
-  <si>
     <t>testTokensTransferredActivityDetails</t>
   </si>
   <si>
@@ -1341,12 +1292,6 @@
   </si>
   <si>
     <t>testData_Api.xlsx,Agreements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-coyni.apibusiness.tests.BusinessSettingsTest,
-testDBAInformationView,
--pheading</t>
   </si>
   <si>
     <t xml:space="preserve">coyni.apibusiness.tests.BusinessSettingsTest,
@@ -1388,13 +1333,6 @@
     <t>coyni.apibusiness.tests.TokenWalletTest,
 testTokensWithdrawnActivityDetails,
 -pwalletNum</t>
-  </si>
-  <si>
-    <t>coyni.apibusiness.tests.TokenWalletTest,
-testAddBankAccount,
--pexpBankName,
--pexpUserName,
--pexpPassword</t>
   </si>
   <si>
     <t>coyni.apibusiness.tests.TokenWalletTest,
@@ -1839,6 +1777,63 @@
   <si>
     <t>coyni.apibusiness.tests.BusinessSettingsTest,
 testBusinessSettingsAddExternalBank,
+-pexpBankName,
+-pexpUserName,
+-pexpPassword</t>
+  </si>
+  <si>
+    <t>testBuyTokenAddBankAccount</t>
+  </si>
+  <si>
+    <t>testBusinessSettingsDeleteBankAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+coyni.apibusiness.tests.BusinessSettingsTest,
+testDBAInformation,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessApplicationTest,
+testCompanyInformationView,
+-pstartPageDescription,
+-pcompanyInfoHeading,
+-pcompanyInfoDescription,
+-pcompanyName,
+-pssn_ein_tin,
+-pcompanyEmail,
+-pcompanyPhoneNumber,
+-paddressline1,
+-paddressline2,
+-pcity,
+-pstate,
+-pzipCode,
+-pcountry,
+-pfolderName,
+-pfileName,
+-pbusinessEntity,
+-pcode</t>
+  </si>
+  <si>
+    <t>testApplicationAdditionalInfo</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessApplicationTest,
+testApplicationAdditionalInfo,
+-pfileName,
+-pfolderName</t>
+  </si>
+  <si>
+    <t>testApplicationCancelled</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.BusinessApplicationTest,
+testApplicationCancelled,
+-pheading</t>
+  </si>
+  <si>
+    <t>coyni.apibusiness.tests.TokenWalletTest,
+testBuyTokensAddBankAccount,
 -pexpBankName,
 -pexpUserName,
 -pexpPassword</t>
@@ -1925,7 +1920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2019,9 +2014,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2037,11 +2029,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2357,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2408,418 +2409,418 @@
     </row>
     <row r="2" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="H7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="H9" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H11" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="H15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>11</v>
@@ -2831,24 +2832,24 @@
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>11</v>
@@ -2860,21 +2861,21 @@
         <v>12</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -2889,50 +2890,50 @@
         <v>12</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
@@ -2947,27 +2948,27 @@
         <v>12</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>12</v>
@@ -2976,27 +2977,27 @@
         <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>12</v>
@@ -3005,21 +3006,21 @@
         <v>12</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>10</v>
@@ -3034,50 +3035,50 @@
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="G25" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>10</v>
@@ -3092,21 +3093,21 @@
         <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>10</v>
@@ -3121,21 +3122,21 @@
         <v>12</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>10</v>
@@ -3150,21 +3151,21 @@
         <v>12</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>10</v>
@@ -3179,21 +3180,21 @@
         <v>12</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>10</v>
@@ -3208,21 +3209,21 @@
         <v>12</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>10</v>
@@ -3237,698 +3238,778 @@
         <v>12</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="B32" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="B33" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="B34" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>99</v>
+      </c>
       <c r="B35" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="B36" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
+        <v>193</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="37" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>98</v>
-      </c>
       <c r="H37" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="8">
+        <v>1</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="I50" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="270" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="H51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="H52" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="26" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="H53" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H41" s="10" t="s">
+      <c r="H54" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I41" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="D55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="H55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="H56" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1</v>
-      </c>
-      <c r="F46" s="8">
-        <v>1</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="8">
-        <v>1</v>
-      </c>
-      <c r="F47" s="8">
-        <v>1</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="8">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="26" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A50" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="26" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I57" s="22" t="s">
-        <v>235</v>
+      <c r="H57" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
@@ -3940,169 +4021,169 @@
         <v>12</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H58" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="I58" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H60" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="10" t="s">
+    </row>
+    <row r="61" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I59" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" s="10" t="s">
+      <c r="D61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="10" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="240" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="33" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30" t="s">
-        <v>274</v>
+    <row r="63" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="I63" s="32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>11</v>
@@ -4114,24 +4195,24 @@
         <v>12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H64" s="22" t="s">
-        <v>77</v>
+        <v>97</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>11</v>
@@ -4143,53 +4224,53 @@
         <v>12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>241</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>11</v>
@@ -4201,24 +4282,24 @@
         <v>12</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>11</v>
@@ -4230,24 +4311,24 @@
         <v>12</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>178</v>
+      <c r="A69" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
@@ -4259,53 +4340,53 @@
         <v>12</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I69" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="B71" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>11</v>
@@ -4317,24 +4398,24 @@
         <v>12</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>253</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>182</v>
+      <c r="A72" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>11</v>
@@ -4346,53 +4427,53 @@
         <v>12</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>11</v>
@@ -4404,53 +4485,53 @@
         <v>12</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
-        <v>212</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>180</v>
+        <v>232</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="10" t="s">
-        <v>214</v>
+        <v>76</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>11</v>
@@ -4462,111 +4543,111 @@
         <v>12</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="H76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="10" t="s">
-        <v>216</v>
+      <c r="I76" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F77" s="21" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="10" t="s">
-        <v>218</v>
+      <c r="I77" s="18" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
-        <v>219</v>
+      <c r="A78" s="43" t="s">
+        <v>198</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H78" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="H78" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>135</v>
+      <c r="I78" s="44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
+        <v>199</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>137</v>
+        <v>232</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>143</v>
+      <c r="A80" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>11</v>
@@ -4578,140 +4659,140 @@
         <v>12</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="18" t="s">
-        <v>142</v>
+      <c r="I81" s="10" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>202</v>
+      <c r="A82" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I82" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I82" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A83" s="27" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="21" t="s">
-        <v>146</v>
+        <v>232</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H83" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>204</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="17" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>11</v>
@@ -4723,24 +4804,24 @@
         <v>12</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I85" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="I85" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>11</v>
@@ -4752,24 +4833,24 @@
         <v>12</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
-        <v>281</v>
+      <c r="I86" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>11</v>
@@ -4781,53 +4862,53 @@
         <v>12</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>11</v>
+        <v>115</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H88" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>11</v>
@@ -4839,24 +4920,24 @@
         <v>12</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H89" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>11</v>
@@ -4868,24 +4949,24 @@
         <v>12</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H90" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="10" t="s">
-        <v>284</v>
+      <c r="I90" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>11</v>
@@ -4897,53 +4978,53 @@
         <v>12</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H91" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="8">
+        <v>1</v>
+      </c>
+      <c r="F92" s="8">
+        <v>1</v>
+      </c>
+      <c r="G92" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="H92" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>11</v>
@@ -4954,173 +5035,173 @@
       <c r="F93" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>141</v>
+      <c r="G93" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I93" s="18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I95" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A97" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D97" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97" s="37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A98" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I98" s="37" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F94" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I94" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F95" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I95" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="8">
-        <v>1</v>
-      </c>
-      <c r="F96" s="8">
-        <v>1</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="18" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I97" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I98" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E99" s="9" t="s">
         <v>12</v>
@@ -5129,137 +5210,137 @@
         <v>12</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>77</v>
+        <v>167</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H100" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>307</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A101" s="34" t="s">
+        <v>168</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I101" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>167</v>
       </c>
+      <c r="D101" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H101" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" s="37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="B102" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>77</v>
+        <v>167</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H102" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>169</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>77</v>
+        <v>167</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>170</v>
+      <c r="A104" s="28" t="s">
+        <v>203</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C104" s="23" t="s">
         <v>171</v>
@@ -5274,54 +5355,54 @@
         <v>12</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H104" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A105" s="34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A105" s="38" t="s">
         <v>172</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C105" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="H105" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H105" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="I105" s="38" t="s">
-        <v>304</v>
+      <c r="I105" s="37" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="D106" s="23" t="s">
         <v>11</v>
       </c>
@@ -5332,372 +5413,372 @@
         <v>12</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H106" s="18" t="s">
         <v>13</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D107" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H107" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H108" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I107" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A108" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D108" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="H108" s="18" t="s">
+      <c r="I108" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H109" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="4" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A109" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D109" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F109" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="H109" s="38" t="s">
+      <c r="I109" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H110" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="H110" s="18" t="s">
+      <c r="I110" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I110" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
+      <c r="I111" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C111" s="8" t="s">
+      <c r="D112" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I111" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="12" t="s">
+      <c r="H112" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H112" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>90</v>
+        <v>268</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C114" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="H114" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>92</v>
+        <v>270</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>94</v>
+      <c r="A116" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>83</v>
+        <v>232</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I116" s="10" t="s">
-        <v>95</v>
+      <c r="I116" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>278</v>
+      <c r="A117" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>83</v>
+        <v>232</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="H117" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I117" s="10" t="s">
-        <v>279</v>
+      <c r="I117" s="25" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>275</v>
+      <c r="A118" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>83</v>
+        <v>232</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I118" s="10" t="s">
-        <v>276</v>
+      <c r="I118" s="18" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>277</v>
+        <v>56</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>11</v>
@@ -5709,191 +5790,75 @@
         <v>12</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>193</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>192</v>
+        <v>232</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I120" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="I120" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>186</v>
+        <v>232</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I121" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F122" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I123" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I124" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I121" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I125" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I104" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}"/>
+  <autoFilter ref="A1:I100" xr:uid="{17DE51BD-94A5-42A8-A4AC-1B2005B22766}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>